--- a/주간계획 수립.xlsx
+++ b/주간계획 수립.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\한양대 빅데이터\project_N\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19178270-0BBA-439E-9588-8CA15053B704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="168" yWindow="1032" windowWidth="19836" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>주간 목표</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -481,21 +482,168 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
+      <t>감성사전 Upgrade(Acc 92% 이상)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - 영향력 없는 긍정 부정 단어 제거(Yen)
+ - 누락된 긍부정 단어 추가(Yen)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>영향력있는 뉴스 분류하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - 영향력의 기준 정립(All)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+웹 구현 화면에 따른 시연 방식 수립</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - 웹 UI 수정 및 개선(Leo, Sophia)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">웹 구축 시작(Tom, Jerry)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 모델 시스템 구성도 작성
+ - Flask &lt;&gt; SQL DB 연동하기
+ - Flask &lt;&gt; Web 연동
+ - Web화면 I/O 확정 짓기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DB 구축 시작(Yen)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Table 구축 방안 수립(All)
+ - 뉴스테이블 종목명 레이블링
+ - 뉴스테이블 산업군 레이블링
+ - 뉴스테이블 긍부정 레이블링
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">감성사전 Upgrade(Acc 85% 이상)
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 중립 기준 선정(All)
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 중립 기준 선정(All)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
  - 영향력 없는 긍정 부정 단어 제거(Yen)
- - 기타 아이디어 수렴(All)
+ - 누락된 긍부정 단어 추가(Yen)
 </t>
     </r>
     <r>
@@ -521,26 +669,49 @@
       </rPr>
       <t xml:space="preserve">
  - 영향력의 기준 정립(All)
- - Bert 학습 및 추론(Leo)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-최종발표 PPT 초안 완성하기(Sophia,Leo)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Bert 학습 및 추론(Leo)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">최종발표 PPT 초안 완성하기(Sophia,Leo)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -552,7 +723,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -565,7 +736,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -597,8 +768,30 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
- - 스토리텔링 구상(Leo)
- - 웹 UI 수정 및 개선(--)</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 스토리텔링 구상(Leo)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - 웹 UI 수정 및 개선(Leo, Sophia)</t>
     </r>
     <r>
       <rPr>
@@ -617,16 +810,26 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 모델 시스템 구성도 작성
- - Azure &lt;&gt; SQL DB 연동하기
- - Azure &lt;&gt; Web 연동
- - DB &lt;&gt; Web 연동
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 모델 시스템 구성도 작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Flask &lt;&gt; SQL DB 연동하기
+ - Flask &lt;&gt; Web 연동
  - Table 구축 방안 수립(All)
 </t>
     </r>
@@ -640,12 +843,86 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
+      <t>DB 구축 시작(Yen)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Table 구축 방안 수립(All)
+ - 뉴스테이블 종목명 레이블링
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 뉴스테이블 산업군 레이블링(변동성 민감도)
+ - 뉴스테이블 산업군 레이블링(뉴스 민감도)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - 뉴스테이블 긍부정 레이블링
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 뉴스테이블 영향력 레이블링</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>관련논문/서적 정리하기(All, Leo)</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -655,17 +932,21 @@
  - 작업과 관련된 논문 찾아보고 공유 및 정리하기
  - 필요한 가설 정리</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너굴너굴~ 노래를 부른다~</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,6 +996,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -743,9 +1033,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -756,6 +1043,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,70 +1326,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="73.796875" customWidth="1"/>
-    <col min="3" max="3" width="90.09765625" customWidth="1"/>
+    <col min="2" max="3" width="46.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="2:3" ht="330.6" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="2:3" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="2:3" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="2:3" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
